--- a/templates/AutomationOrg/RSTK-9521-Consigned WO.xlsx
+++ b/templates/AutomationOrg/RSTK-9521-Consigned WO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092379B8-F9DE-40D2-8F15-7D8EA92FA13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75A2D17-79B4-4E56-B34C-05D53F5D5F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="101">
   <si>
     <t>Site</t>
   </si>
@@ -680,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F5"/>
+      <selection activeCell="B3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,50 +752,6 @@
         <v>9</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="G5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1703,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B46C-917D-4769-9EED-CC4369AB85E4}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1896,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4834583-3C97-4830-AB3E-726B04898CE6}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1926,6 +1882,9 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
       <c r="D2" t="s">
         <v>45</v>
       </c>
@@ -1933,6 +1892,9 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
